--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="21075" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Registers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t>Comments</t>
   </si>
@@ -865,6 +866,9 @@
   </si>
   <si>
     <t>Minimum time in 6.4 ns increments before the footer is asserted and the super-packet ends</t>
+  </si>
+  <si>
+    <t>Fast ADC sample offset[1:0]</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1177,6 +1181,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,16 +1221,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1220,32 +1252,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,33 +1574,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2"/>
@@ -1631,8 +1641,8 @@
       <c r="BC1" s="2"/>
     </row>
     <row r="2" spans="1:55" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="13">
         <v>15</v>
       </c>
@@ -1681,7 +1691,7 @@
       <c r="R2" s="5">
         <v>0</v>
       </c>
-      <c r="S2" s="20"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1720,64 +1730,64 @@
       <c r="BC2" s="2"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="33">
         <v>0</v>
       </c>
       <c r="B3" s="16">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="12">
         <f>B3+1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="34">
         <f>A3+1</f>
         <v>1</v>
       </c>
@@ -1785,55 +1795,55 @@
         <f t="shared" ref="B5:B14" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
       <c r="S5" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:55" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="31" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="15" t="s">
         <v>25</v>
       </c>
@@ -1842,43 +1852,43 @@
       </c>
     </row>
     <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <f t="shared" ref="A7" si="1">A5+1</f>
+      <c r="A7" s="34">
+        <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="35" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:55" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1899,289 +1909,287 @@
       <c r="I8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="J8" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="44"/>
       <c r="L8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="36" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <f t="shared" ref="A9" si="2">A7+1</f>
+      <c r="A9" s="34">
+        <f>A7+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <f t="shared" ref="A11" si="3">A9+1</f>
+      <c r="A11" s="34">
+        <f>A9+1</f>
         <v>4</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <f t="shared" ref="A13" si="4">A11+1</f>
+      <c r="A13" s="34">
+        <f>A11+1</f>
         <v>5</v>
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
@@ -2189,7 +2197,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="S11:S14"/>
     <mergeCell ref="S15:S18"/>
@@ -2204,6 +2212,7 @@
     <mergeCell ref="C15:R15"/>
     <mergeCell ref="C16:R16"/>
     <mergeCell ref="C17:R17"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -2236,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,40 +2255,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="13">
         <v>15</v>
       </c>
@@ -2328,66 +2337,66 @@
       <c r="R2" s="5">
         <v>0</v>
       </c>
-      <c r="S2" s="30"/>
+      <c r="S2" s="42"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="33">
         <v>0</v>
       </c>
       <c r="B3" s="16">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="12">
         <f>B3+1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="25"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="34">
         <f>A3+1</f>
         <v>1</v>
       </c>
@@ -2395,407 +2404,407 @@
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="25"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <f t="shared" ref="A7" si="1">A5+1</f>
+      <c r="A7" s="34">
+        <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <f t="shared" ref="A9" si="2">A7+1</f>
+      <c r="A9" s="34">
+        <f>A7+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <f t="shared" ref="A11" si="3">A9+1</f>
+      <c r="A11" s="34">
+        <f>A9+1</f>
         <v>4</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="26" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="27"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="39"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <f t="shared" ref="A13:A25" si="4">A11+1</f>
+      <c r="A13" s="34">
+        <f t="shared" ref="A13:A25" si="1">A11+1</f>
         <v>5</v>
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="27"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="27"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <f t="shared" si="4"/>
+      <c r="A15" s="34">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="27"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="27"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <f t="shared" si="4"/>
+      <c r="A17" s="34">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="27"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="39"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="28"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="1:19" ht="195" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <f t="shared" si="4"/>
+      <c r="A19" s="34">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="34"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15" t="s">
         <v>33</v>
       </c>
@@ -2819,201 +2828,198 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <f t="shared" si="4"/>
+      <c r="A21" s="34">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <f t="shared" si="4"/>
+      <c r="A23" s="34">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <f t="shared" si="4"/>
+      <c r="A25" s="34">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:R1"/>
@@ -3024,6 +3030,15 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:R7"/>
+    <mergeCell ref="C3:R3"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="C8:R8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:R11"/>
     <mergeCell ref="C12:R12"/>
@@ -3036,12 +3051,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:R17"/>
     <mergeCell ref="C18:R18"/>
-    <mergeCell ref="C3:R3"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="C8:R8"/>
     <mergeCell ref="S11:S18"/>
     <mergeCell ref="C20:R20"/>
     <mergeCell ref="C21:R21"/>
@@ -3064,31 +3073,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24" style="39" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="24" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="25" customWidth="1"/>
     <col min="5" max="5" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3098,13 +3107,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="25">
         <v>32</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E3" t="s">
@@ -3112,13 +3121,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="25">
         <v>32</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E4" t="s">
@@ -3126,13 +3135,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E5" t="s">
@@ -3140,13 +3149,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E6" t="s">
@@ -3154,13 +3163,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="25">
         <v>128</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E7" t="s">
@@ -3168,7 +3177,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="16" t="s">
         <v>72</v>
       </c>
@@ -3178,7 +3187,7 @@
       <c r="D8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3188,13 +3197,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E10" t="s">
@@ -3202,13 +3211,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="25">
         <v>64</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E11" t="s">
@@ -3216,13 +3225,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="25">
         <v>16</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E12" t="s">
@@ -3230,7 +3239,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="16" t="s">
         <v>82</v>
       </c>
@@ -3240,7 +3249,7 @@
       <c r="D13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="23" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3250,7 +3259,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="16" t="s">
         <v>85</v>
       </c>
@@ -3260,7 +3269,7 @@
       <c r="D15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3270,13 +3279,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E17" t="s">
@@ -3284,13 +3293,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="25">
         <v>32</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E18" t="s">
@@ -3298,7 +3307,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="16" t="s">
         <v>92</v>
       </c>
@@ -3308,7 +3317,7 @@
       <c r="D19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3318,13 +3327,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E21" t="s">
@@ -3332,13 +3341,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E22" t="s">
@@ -3346,13 +3355,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="25">
         <v>32</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E23" t="s">
@@ -3360,13 +3369,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="25">
         <v>32</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E24" t="s">
@@ -3374,13 +3383,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="25">
         <v>32</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E25" t="s">
@@ -3388,13 +3397,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="25">
         <v>16</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E26" t="s">
@@ -3402,13 +3411,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="25">
         <v>16</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E27" t="s">
@@ -3416,13 +3425,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="25">
         <v>16</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E28" t="s">
@@ -3430,13 +3439,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="25">
         <v>16</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E29" t="s">
@@ -3444,13 +3453,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="25">
         <v>16</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E30" t="s">
@@ -3458,13 +3467,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E31" t="s">
@@ -3472,7 +3481,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="16" t="s">
         <v>110</v>
       </c>
@@ -3482,7 +3491,7 @@
       <c r="D32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="23" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3492,7 +3501,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="16" t="s">
         <v>118</v>
       </c>
@@ -3502,7 +3511,7 @@
       <c r="D34" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="23" t="s">
         <v>119</v>
       </c>
     </row>
